--- a/08_ProtectMode/23 TLB 代码挂页 全局页.xlsx
+++ b/08_ProtectMode/23 TLB 代码挂页 全局页.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\.important\mySoftwareReverse\08_Protect_Mode\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\.important\mySoftwareReverse\08_ProtectMode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60DA9A73-AA04-4A4D-9DD3-33AA9041CD4D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{092BD1D8-7A40-40EA-8769-4A0E5B7D720F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3302,7 +3302,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -3338,17 +3338,16 @@
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -10941,8 +10940,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L7" sqref="L7"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="F32" sqref="F32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -11065,7 +11064,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C246CAB1-4BD6-4C02-8BCC-399DA2DF0F04}">
   <dimension ref="B5:G6"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E29" sqref="E29"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -11104,9 +11105,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F8F2CF74-DB9F-4C0C-9FC8-0E804083B7D3}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E27" sqref="E27"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <sheetData/>
@@ -12325,7 +12324,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D349305-42EA-430A-90EE-097034C7E8D6}">
-  <dimension ref="B2:L77"/>
+  <dimension ref="B2:B77"/>
   <sheetViews>
     <sheetView topLeftCell="A9" workbookViewId="0">
       <selection activeCell="O17" sqref="O17"/>
@@ -12333,985 +12332,235 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="2" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B2" s="17" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="3" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B3" s="19"/>
-      <c r="C3" s="20"/>
-      <c r="D3" s="20"/>
-      <c r="E3" s="20"/>
-      <c r="F3" s="20"/>
-      <c r="G3" s="20"/>
-      <c r="H3" s="20"/>
-      <c r="I3" s="20"/>
-      <c r="J3" s="20"/>
-      <c r="K3" s="20"/>
-      <c r="L3" s="20"/>
-    </row>
-    <row r="4" spans="2:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B4" s="19"/>
-      <c r="C4" s="20"/>
-      <c r="D4" s="20"/>
-      <c r="E4" s="20"/>
-      <c r="F4" s="20"/>
-      <c r="G4" s="20"/>
-      <c r="H4" s="20"/>
-      <c r="I4" s="20"/>
-      <c r="J4" s="20"/>
-      <c r="K4" s="20"/>
-      <c r="L4" s="20"/>
-    </row>
-    <row r="5" spans="2:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B5" s="19"/>
-      <c r="C5" s="20"/>
-      <c r="D5" s="20"/>
-      <c r="E5" s="20"/>
-      <c r="F5" s="20"/>
-      <c r="G5" s="20"/>
-      <c r="H5" s="20"/>
-      <c r="I5" s="20"/>
-      <c r="J5" s="20"/>
-      <c r="K5" s="20"/>
-      <c r="L5" s="20"/>
-    </row>
-    <row r="6" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B6" s="21"/>
-      <c r="C6" s="20"/>
-      <c r="D6" s="20"/>
-      <c r="E6" s="20"/>
-      <c r="F6" s="20"/>
-      <c r="G6" s="20"/>
-      <c r="H6" s="20"/>
-      <c r="I6" s="20"/>
-      <c r="J6" s="20"/>
-      <c r="K6" s="20"/>
-      <c r="L6" s="20"/>
-    </row>
-    <row r="7" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B7" s="22"/>
-      <c r="C7" s="20"/>
-      <c r="D7" s="20"/>
-      <c r="E7" s="20"/>
-      <c r="F7" s="20"/>
-      <c r="G7" s="20"/>
-      <c r="H7" s="20"/>
-      <c r="I7" s="20"/>
-      <c r="J7" s="20"/>
-      <c r="K7" s="20"/>
-      <c r="L7" s="20"/>
-    </row>
-    <row r="8" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B8" s="22"/>
-      <c r="C8" s="20"/>
-      <c r="D8" s="20"/>
-      <c r="E8" s="20"/>
-      <c r="F8" s="20"/>
-      <c r="G8" s="20"/>
-      <c r="H8" s="20"/>
-      <c r="I8" s="20"/>
-      <c r="J8" s="20"/>
-      <c r="K8" s="20"/>
-      <c r="L8" s="20"/>
-    </row>
-    <row r="9" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B9" s="21"/>
-      <c r="C9" s="20"/>
-      <c r="D9" s="20"/>
-      <c r="E9" s="20"/>
-      <c r="F9" s="20"/>
-      <c r="G9" s="20"/>
-      <c r="H9" s="20"/>
-      <c r="I9" s="20"/>
-      <c r="J9" s="20"/>
-      <c r="K9" s="20"/>
-      <c r="L9" s="20"/>
-    </row>
-    <row r="10" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B10" s="22"/>
-      <c r="C10" s="20"/>
-      <c r="D10" s="20"/>
-      <c r="E10" s="20"/>
-      <c r="F10" s="20"/>
-      <c r="G10" s="20"/>
-      <c r="H10" s="20"/>
-      <c r="I10" s="20"/>
-      <c r="J10" s="20"/>
-      <c r="K10" s="20"/>
-      <c r="L10" s="20"/>
-    </row>
-    <row r="11" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B11" s="21"/>
-      <c r="C11" s="20"/>
-      <c r="D11" s="20"/>
-      <c r="E11" s="20"/>
-      <c r="F11" s="20"/>
-      <c r="G11" s="20"/>
-      <c r="H11" s="20"/>
-      <c r="I11" s="20"/>
-      <c r="J11" s="20"/>
-      <c r="K11" s="20"/>
-      <c r="L11" s="20"/>
-    </row>
-    <row r="12" spans="2:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B6" s="20"/>
+    </row>
+    <row r="7" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B7" s="21"/>
+    </row>
+    <row r="8" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B8" s="21"/>
+    </row>
+    <row r="9" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B9" s="20"/>
+    </row>
+    <row r="10" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B10" s="21"/>
+    </row>
+    <row r="11" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B11" s="20"/>
+    </row>
+    <row r="12" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B12" s="19"/>
-      <c r="C12" s="20"/>
-      <c r="D12" s="20"/>
-      <c r="E12" s="20"/>
-      <c r="F12" s="20"/>
-      <c r="G12" s="20"/>
-      <c r="H12" s="20"/>
-      <c r="I12" s="20"/>
-      <c r="J12" s="20"/>
-      <c r="K12" s="20"/>
-      <c r="L12" s="20"/>
-    </row>
-    <row r="13" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B13" s="23"/>
-      <c r="C13" s="20"/>
-      <c r="D13" s="20"/>
-      <c r="E13" s="20"/>
-      <c r="F13" s="20"/>
-      <c r="G13" s="20"/>
-      <c r="H13" s="20"/>
-      <c r="I13" s="20"/>
-      <c r="J13" s="20"/>
-      <c r="K13" s="20"/>
-      <c r="L13" s="20"/>
-    </row>
-    <row r="14" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B14" s="23"/>
-      <c r="C14" s="20"/>
-      <c r="D14" s="20"/>
-      <c r="E14" s="20"/>
-      <c r="F14" s="20"/>
-      <c r="G14" s="20"/>
-      <c r="H14" s="20"/>
-      <c r="I14" s="20"/>
-      <c r="J14" s="20"/>
-      <c r="K14" s="20"/>
-      <c r="L14" s="20"/>
-    </row>
-    <row r="15" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B15" s="23"/>
-      <c r="C15" s="20"/>
-      <c r="D15" s="20"/>
-      <c r="E15" s="20"/>
-      <c r="F15" s="20"/>
-      <c r="G15" s="20"/>
-      <c r="H15" s="20"/>
-      <c r="I15" s="20"/>
-      <c r="J15" s="20"/>
-      <c r="K15" s="20"/>
-      <c r="L15" s="20"/>
-    </row>
-    <row r="16" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B16" s="23"/>
-      <c r="C16" s="20"/>
-      <c r="D16" s="20"/>
-      <c r="E16" s="20"/>
-      <c r="F16" s="20"/>
-      <c r="G16" s="20"/>
-      <c r="H16" s="20"/>
-      <c r="I16" s="20"/>
-      <c r="J16" s="20"/>
-      <c r="K16" s="20"/>
-      <c r="L16" s="20"/>
-    </row>
-    <row r="17" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B17" s="23"/>
-      <c r="C17" s="20"/>
-      <c r="D17" s="20"/>
-      <c r="E17" s="20"/>
-      <c r="F17" s="20"/>
-      <c r="G17" s="20"/>
-      <c r="H17" s="20"/>
-      <c r="I17" s="20"/>
-      <c r="J17" s="20"/>
-      <c r="K17" s="20"/>
-      <c r="L17" s="20"/>
-    </row>
-    <row r="18" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B18" s="23"/>
-      <c r="C18" s="20"/>
-      <c r="D18" s="20"/>
-      <c r="E18" s="20"/>
-      <c r="F18" s="20"/>
-      <c r="G18" s="20"/>
-      <c r="H18" s="20"/>
-      <c r="I18" s="20"/>
-      <c r="J18" s="20"/>
-      <c r="K18" s="20"/>
-      <c r="L18" s="20"/>
-    </row>
-    <row r="19" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B19" s="23"/>
-      <c r="C19" s="20"/>
-      <c r="D19" s="20"/>
-      <c r="E19" s="20"/>
-      <c r="F19" s="20"/>
-      <c r="G19" s="20"/>
-      <c r="H19" s="20"/>
-      <c r="I19" s="20"/>
-      <c r="J19" s="20"/>
-      <c r="K19" s="20"/>
-      <c r="L19" s="20"/>
-    </row>
-    <row r="20" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B20" s="23"/>
-      <c r="C20" s="20"/>
-      <c r="D20" s="20"/>
-      <c r="E20" s="20"/>
-      <c r="F20" s="20"/>
-      <c r="G20" s="20"/>
-      <c r="H20" s="20"/>
-      <c r="I20" s="20"/>
-      <c r="J20" s="20"/>
-      <c r="K20" s="20"/>
-      <c r="L20" s="20"/>
-    </row>
-    <row r="21" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B21" s="23"/>
-      <c r="C21" s="20"/>
-      <c r="D21" s="20"/>
-      <c r="E21" s="20"/>
-      <c r="F21" s="20"/>
-      <c r="G21" s="20"/>
-      <c r="H21" s="20"/>
-      <c r="I21" s="20"/>
-      <c r="J21" s="20"/>
-      <c r="K21" s="20"/>
-      <c r="L21" s="20"/>
-    </row>
-    <row r="22" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B22" s="21"/>
-      <c r="C22" s="20"/>
-      <c r="D22" s="20"/>
-      <c r="E22" s="20"/>
-      <c r="F22" s="20"/>
-      <c r="G22" s="20"/>
-      <c r="H22" s="20"/>
-      <c r="I22" s="20"/>
-      <c r="J22" s="20"/>
-      <c r="K22" s="20"/>
-      <c r="L22" s="20"/>
-    </row>
-    <row r="23" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B23" s="23"/>
-      <c r="C23" s="20"/>
-      <c r="D23" s="20"/>
-      <c r="E23" s="20"/>
-      <c r="F23" s="20"/>
-      <c r="G23" s="20"/>
-      <c r="H23" s="20"/>
-      <c r="I23" s="20"/>
-      <c r="J23" s="20"/>
-      <c r="K23" s="20"/>
-      <c r="L23" s="20"/>
-    </row>
-    <row r="24" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B24" s="23"/>
-      <c r="C24" s="20"/>
-      <c r="D24" s="20"/>
-      <c r="E24" s="20"/>
-      <c r="F24" s="20"/>
-      <c r="G24" s="20"/>
-      <c r="H24" s="20"/>
-      <c r="I24" s="20"/>
-      <c r="J24" s="20"/>
-      <c r="K24" s="20"/>
-      <c r="L24" s="20"/>
-    </row>
-    <row r="25" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B25" s="23"/>
-      <c r="C25" s="20"/>
-      <c r="D25" s="20"/>
-      <c r="E25" s="20"/>
-      <c r="F25" s="20"/>
-      <c r="G25" s="20"/>
-      <c r="H25" s="20"/>
-      <c r="I25" s="20"/>
-      <c r="J25" s="20"/>
-      <c r="K25" s="20"/>
-      <c r="L25" s="20"/>
-    </row>
-    <row r="26" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B26" s="23"/>
-      <c r="C26" s="20"/>
-      <c r="D26" s="20"/>
-      <c r="E26" s="20"/>
-      <c r="F26" s="20"/>
-      <c r="G26" s="20"/>
-      <c r="H26" s="20"/>
-      <c r="I26" s="20"/>
-      <c r="J26" s="20"/>
-      <c r="K26" s="20"/>
-      <c r="L26" s="20"/>
-    </row>
-    <row r="27" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B27" s="23"/>
-      <c r="C27" s="20"/>
-      <c r="D27" s="20"/>
-      <c r="E27" s="20"/>
-      <c r="F27" s="20"/>
-      <c r="G27" s="20"/>
-      <c r="H27" s="20"/>
-      <c r="I27" s="20"/>
-      <c r="J27" s="20"/>
-      <c r="K27" s="20"/>
-      <c r="L27" s="20"/>
-    </row>
-    <row r="28" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B28" s="23"/>
-      <c r="C28" s="20"/>
-      <c r="D28" s="20"/>
-      <c r="E28" s="20"/>
-      <c r="F28" s="20"/>
-      <c r="G28" s="20"/>
-      <c r="H28" s="20"/>
-      <c r="I28" s="20"/>
-      <c r="J28" s="20"/>
-      <c r="K28" s="20"/>
-      <c r="L28" s="20"/>
-    </row>
-    <row r="29" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B29" s="23"/>
-      <c r="C29" s="20"/>
-      <c r="D29" s="20"/>
-      <c r="E29" s="20"/>
-      <c r="F29" s="20"/>
-      <c r="G29" s="20"/>
-      <c r="H29" s="20"/>
-      <c r="I29" s="20"/>
-      <c r="J29" s="20"/>
-      <c r="K29" s="20"/>
-      <c r="L29" s="20"/>
-    </row>
-    <row r="30" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B30" s="23"/>
-      <c r="C30" s="20"/>
-      <c r="D30" s="20"/>
-      <c r="E30" s="20"/>
-      <c r="F30" s="20"/>
-      <c r="G30" s="20"/>
-      <c r="H30" s="20"/>
-      <c r="I30" s="20"/>
-      <c r="J30" s="20"/>
-      <c r="K30" s="20"/>
-      <c r="L30" s="20"/>
-    </row>
-    <row r="31" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B31" s="23"/>
-      <c r="C31" s="20"/>
-      <c r="D31" s="20"/>
-      <c r="E31" s="20"/>
-      <c r="F31" s="20"/>
-      <c r="G31" s="20"/>
-      <c r="H31" s="20"/>
-      <c r="I31" s="20"/>
-      <c r="J31" s="20"/>
-      <c r="K31" s="20"/>
-      <c r="L31" s="20"/>
-    </row>
-    <row r="32" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B32" s="23"/>
-      <c r="C32" s="20"/>
-      <c r="D32" s="20"/>
-      <c r="E32" s="20"/>
-      <c r="F32" s="20"/>
-      <c r="G32" s="20"/>
-      <c r="H32" s="20"/>
-      <c r="I32" s="20"/>
-      <c r="J32" s="20"/>
-      <c r="K32" s="20"/>
-      <c r="L32" s="20"/>
-    </row>
-    <row r="33" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B33" s="23"/>
-      <c r="C33" s="20"/>
-      <c r="D33" s="20"/>
-      <c r="E33" s="20"/>
-      <c r="F33" s="20"/>
-      <c r="G33" s="20"/>
-      <c r="H33" s="20"/>
-      <c r="I33" s="20"/>
-      <c r="J33" s="20"/>
-      <c r="K33" s="20"/>
-      <c r="L33" s="20"/>
-    </row>
-    <row r="34" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B34" s="23"/>
-      <c r="C34" s="20"/>
-      <c r="D34" s="20"/>
-      <c r="E34" s="20"/>
-      <c r="F34" s="20"/>
-      <c r="G34" s="20"/>
-      <c r="H34" s="20"/>
-      <c r="I34" s="20"/>
-      <c r="J34" s="20"/>
-      <c r="K34" s="20"/>
-      <c r="L34" s="20"/>
-    </row>
-    <row r="35" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B35" s="23"/>
-      <c r="C35" s="20"/>
-      <c r="D35" s="20"/>
-      <c r="E35" s="20"/>
-      <c r="F35" s="20"/>
-      <c r="G35" s="20"/>
-      <c r="H35" s="20"/>
-      <c r="I35" s="20"/>
-      <c r="J35" s="20"/>
-      <c r="K35" s="20"/>
-      <c r="L35" s="20"/>
-    </row>
-    <row r="36" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B36" s="23"/>
-      <c r="C36" s="20"/>
-      <c r="D36" s="20"/>
-      <c r="E36" s="20"/>
-      <c r="F36" s="20"/>
-      <c r="G36" s="20"/>
-      <c r="H36" s="20"/>
-      <c r="I36" s="20"/>
-      <c r="J36" s="20"/>
-      <c r="K36" s="20"/>
-      <c r="L36" s="20"/>
-    </row>
-    <row r="37" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B37" s="23"/>
-      <c r="C37" s="20"/>
-      <c r="D37" s="20"/>
-      <c r="E37" s="20"/>
-      <c r="F37" s="20"/>
-      <c r="G37" s="20"/>
-      <c r="H37" s="20"/>
-      <c r="I37" s="20"/>
-      <c r="J37" s="20"/>
-      <c r="K37" s="20"/>
-      <c r="L37" s="20"/>
-    </row>
-    <row r="38" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B38" s="23"/>
-      <c r="C38" s="20"/>
-      <c r="D38" s="20"/>
-      <c r="E38" s="20"/>
-      <c r="F38" s="20"/>
-      <c r="G38" s="20"/>
-      <c r="H38" s="20"/>
-      <c r="I38" s="20"/>
-      <c r="J38" s="20"/>
-      <c r="K38" s="20"/>
-      <c r="L38" s="20"/>
-    </row>
-    <row r="39" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B39" s="23"/>
-      <c r="C39" s="20"/>
-      <c r="D39" s="20"/>
-      <c r="E39" s="20"/>
-      <c r="F39" s="20"/>
-      <c r="G39" s="20"/>
-      <c r="H39" s="20"/>
-      <c r="I39" s="20"/>
-      <c r="J39" s="20"/>
-      <c r="K39" s="20"/>
-      <c r="L39" s="20"/>
-    </row>
-    <row r="40" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B40" s="23"/>
-      <c r="C40" s="20"/>
-      <c r="D40" s="20"/>
-      <c r="E40" s="20"/>
-      <c r="F40" s="20"/>
-      <c r="G40" s="20"/>
-      <c r="H40" s="20"/>
-      <c r="I40" s="20"/>
-      <c r="J40" s="20"/>
-      <c r="K40" s="20"/>
-      <c r="L40" s="20"/>
-    </row>
-    <row r="41" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B41" s="23"/>
-      <c r="C41" s="20"/>
-      <c r="D41" s="20"/>
-      <c r="E41" s="20"/>
-      <c r="F41" s="20"/>
-      <c r="G41" s="20"/>
-      <c r="H41" s="20"/>
-      <c r="I41" s="20"/>
-      <c r="J41" s="20"/>
-      <c r="K41" s="20"/>
-      <c r="L41" s="20"/>
-    </row>
-    <row r="42" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B42" s="23"/>
-      <c r="C42" s="20"/>
-      <c r="D42" s="20"/>
-      <c r="E42" s="20"/>
-      <c r="F42" s="20"/>
-      <c r="G42" s="20"/>
-      <c r="H42" s="20"/>
-      <c r="I42" s="20"/>
-      <c r="J42" s="20"/>
-      <c r="K42" s="20"/>
-      <c r="L42" s="20"/>
-    </row>
-    <row r="43" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B43" s="23"/>
-      <c r="C43" s="20"/>
-      <c r="D43" s="20"/>
-      <c r="E43" s="20"/>
-      <c r="F43" s="20"/>
-      <c r="G43" s="20"/>
-      <c r="H43" s="20"/>
-      <c r="I43" s="20"/>
-      <c r="J43" s="20"/>
-      <c r="K43" s="20"/>
-      <c r="L43" s="20"/>
-    </row>
-    <row r="44" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B44" s="23"/>
-      <c r="C44" s="20"/>
-      <c r="D44" s="20"/>
-      <c r="E44" s="20"/>
-      <c r="F44" s="20"/>
-      <c r="G44" s="20"/>
-      <c r="H44" s="20"/>
-      <c r="I44" s="20"/>
-      <c r="J44" s="20"/>
-      <c r="K44" s="20"/>
-      <c r="L44" s="20"/>
-    </row>
-    <row r="45" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B45" s="23"/>
-      <c r="C45" s="20"/>
-      <c r="D45" s="20"/>
-      <c r="E45" s="20"/>
-      <c r="F45" s="20"/>
-      <c r="G45" s="20"/>
-      <c r="H45" s="20"/>
-      <c r="I45" s="20"/>
-      <c r="J45" s="20"/>
-      <c r="K45" s="20"/>
-      <c r="L45" s="20"/>
-    </row>
-    <row r="46" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B46" s="21"/>
-      <c r="C46" s="20"/>
-      <c r="D46" s="20"/>
-      <c r="E46" s="20"/>
-      <c r="F46" s="20"/>
-      <c r="G46" s="20"/>
-      <c r="H46" s="20"/>
-      <c r="I46" s="20"/>
-      <c r="J46" s="20"/>
-      <c r="K46" s="20"/>
-      <c r="L46" s="20"/>
-    </row>
-    <row r="47" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B47" s="23"/>
-      <c r="C47" s="20"/>
-      <c r="D47" s="20"/>
-      <c r="E47" s="20"/>
-      <c r="F47" s="20"/>
-      <c r="G47" s="20"/>
-      <c r="H47" s="20"/>
-      <c r="I47" s="20"/>
-      <c r="J47" s="20"/>
-      <c r="K47" s="20"/>
-      <c r="L47" s="20"/>
-    </row>
-    <row r="48" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B48" s="23"/>
-      <c r="C48" s="20"/>
-      <c r="D48" s="20"/>
-      <c r="E48" s="20"/>
-      <c r="F48" s="20"/>
-      <c r="G48" s="20"/>
-      <c r="H48" s="20"/>
-      <c r="I48" s="20"/>
-      <c r="J48" s="20"/>
-      <c r="K48" s="20"/>
-      <c r="L48" s="20"/>
-    </row>
-    <row r="49" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B49" s="23"/>
-      <c r="C49" s="20"/>
-      <c r="D49" s="20"/>
-      <c r="E49" s="20"/>
-      <c r="F49" s="20"/>
-      <c r="G49" s="20"/>
-      <c r="H49" s="20"/>
-      <c r="I49" s="20"/>
-      <c r="J49" s="20"/>
-      <c r="K49" s="20"/>
-      <c r="L49" s="20"/>
-    </row>
-    <row r="50" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B50" s="23"/>
-      <c r="C50" s="20"/>
-      <c r="D50" s="20"/>
-      <c r="E50" s="20"/>
-      <c r="F50" s="20"/>
-      <c r="G50" s="20"/>
-      <c r="H50" s="20"/>
-      <c r="I50" s="20"/>
-      <c r="J50" s="20"/>
-      <c r="K50" s="20"/>
-      <c r="L50" s="20"/>
-    </row>
-    <row r="51" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B51" s="23"/>
-      <c r="C51" s="20"/>
-      <c r="D51" s="20"/>
-      <c r="E51" s="20"/>
-      <c r="F51" s="20"/>
-      <c r="G51" s="20"/>
-      <c r="H51" s="20"/>
-      <c r="I51" s="20"/>
-      <c r="J51" s="20"/>
-      <c r="K51" s="20"/>
-      <c r="L51" s="20"/>
-    </row>
-    <row r="52" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B52" s="21"/>
-      <c r="C52" s="20"/>
-      <c r="D52" s="20"/>
-      <c r="E52" s="20"/>
-      <c r="F52" s="20"/>
-      <c r="G52" s="20"/>
-      <c r="H52" s="20"/>
-      <c r="I52" s="20"/>
-      <c r="J52" s="20"/>
-      <c r="K52" s="20"/>
-      <c r="L52" s="20"/>
-    </row>
-    <row r="53" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B53" s="21"/>
-      <c r="C53" s="20"/>
-      <c r="D53" s="20"/>
-      <c r="E53" s="20"/>
-      <c r="F53" s="20"/>
-      <c r="G53" s="20"/>
-      <c r="H53" s="20"/>
-      <c r="I53" s="20"/>
-      <c r="J53" s="20"/>
-      <c r="K53" s="20"/>
-      <c r="L53" s="20"/>
-    </row>
-    <row r="54" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B54" s="21"/>
-      <c r="C54" s="20"/>
-      <c r="D54" s="20"/>
-      <c r="E54" s="20"/>
-      <c r="F54" s="20"/>
-      <c r="G54" s="20"/>
-      <c r="H54" s="20"/>
-      <c r="I54" s="20"/>
-      <c r="J54" s="20"/>
-      <c r="K54" s="20"/>
-      <c r="L54" s="20"/>
-    </row>
-    <row r="55" spans="2:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="13" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B13" s="22"/>
+    </row>
+    <row r="14" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B14" s="22"/>
+    </row>
+    <row r="15" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B15" s="22"/>
+    </row>
+    <row r="16" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B16" s="22"/>
+    </row>
+    <row r="17" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B17" s="22"/>
+    </row>
+    <row r="18" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B18" s="22"/>
+    </row>
+    <row r="19" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B19" s="22"/>
+    </row>
+    <row r="20" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B20" s="22"/>
+    </row>
+    <row r="21" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B21" s="22"/>
+    </row>
+    <row r="22" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B22" s="20"/>
+    </row>
+    <row r="23" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B23" s="22"/>
+    </row>
+    <row r="24" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B24" s="22"/>
+    </row>
+    <row r="25" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B25" s="22"/>
+    </row>
+    <row r="26" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B26" s="22"/>
+    </row>
+    <row r="27" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B27" s="22"/>
+    </row>
+    <row r="28" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B28" s="22"/>
+    </row>
+    <row r="29" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B29" s="22"/>
+    </row>
+    <row r="30" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B30" s="22"/>
+    </row>
+    <row r="31" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B31" s="22"/>
+    </row>
+    <row r="32" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B32" s="22"/>
+    </row>
+    <row r="33" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B33" s="22"/>
+    </row>
+    <row r="34" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B34" s="22"/>
+    </row>
+    <row r="35" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B35" s="22"/>
+    </row>
+    <row r="36" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B36" s="22"/>
+    </row>
+    <row r="37" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B37" s="22"/>
+    </row>
+    <row r="38" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B38" s="22"/>
+    </row>
+    <row r="39" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B39" s="22"/>
+    </row>
+    <row r="40" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B40" s="22"/>
+    </row>
+    <row r="41" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B41" s="22"/>
+    </row>
+    <row r="42" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B42" s="22"/>
+    </row>
+    <row r="43" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B43" s="22"/>
+    </row>
+    <row r="44" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B44" s="22"/>
+    </row>
+    <row r="45" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B45" s="22"/>
+    </row>
+    <row r="46" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B46" s="20"/>
+    </row>
+    <row r="47" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B47" s="22"/>
+    </row>
+    <row r="48" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B48" s="22"/>
+    </row>
+    <row r="49" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B49" s="22"/>
+    </row>
+    <row r="50" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B50" s="22"/>
+    </row>
+    <row r="51" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B51" s="22"/>
+    </row>
+    <row r="52" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B52" s="20"/>
+    </row>
+    <row r="53" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B53" s="20"/>
+    </row>
+    <row r="54" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B54" s="20"/>
+    </row>
+    <row r="55" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B55" s="19"/>
-      <c r="C55" s="20"/>
-      <c r="D55" s="20"/>
-      <c r="E55" s="20"/>
-      <c r="F55" s="20"/>
-      <c r="G55" s="20"/>
-      <c r="H55" s="20"/>
-      <c r="I55" s="20"/>
-      <c r="J55" s="20"/>
-      <c r="K55" s="20"/>
-      <c r="L55" s="20"/>
-    </row>
-    <row r="56" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B56" s="23"/>
-      <c r="C56" s="20"/>
-      <c r="D56" s="20"/>
-      <c r="E56" s="20"/>
-      <c r="F56" s="20"/>
-      <c r="G56" s="20"/>
-      <c r="H56" s="20"/>
-      <c r="I56" s="20"/>
-      <c r="J56" s="20"/>
-      <c r="K56" s="20"/>
-      <c r="L56" s="20"/>
-    </row>
-    <row r="57" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B57" s="23"/>
-      <c r="C57" s="20"/>
-      <c r="D57" s="20"/>
-      <c r="E57" s="20"/>
-      <c r="F57" s="20"/>
-      <c r="G57" s="20"/>
-      <c r="H57" s="20"/>
-      <c r="I57" s="20"/>
-      <c r="J57" s="20"/>
-      <c r="K57" s="20"/>
-      <c r="L57" s="20"/>
-    </row>
-    <row r="58" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B58" s="23"/>
-      <c r="C58" s="20"/>
-      <c r="D58" s="20"/>
-      <c r="E58" s="20"/>
-      <c r="F58" s="20"/>
-      <c r="G58" s="20"/>
-      <c r="H58" s="20"/>
-      <c r="I58" s="20"/>
-      <c r="J58" s="20"/>
-      <c r="K58" s="20"/>
-      <c r="L58" s="20"/>
-    </row>
-    <row r="59" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B59" s="23"/>
-      <c r="C59" s="20"/>
-      <c r="D59" s="20"/>
-      <c r="E59" s="20"/>
-      <c r="F59" s="20"/>
-      <c r="G59" s="20"/>
-      <c r="H59" s="20"/>
-      <c r="I59" s="20"/>
-      <c r="J59" s="20"/>
-      <c r="K59" s="20"/>
-      <c r="L59" s="20"/>
-    </row>
-    <row r="60" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B60" s="23"/>
-      <c r="C60" s="20"/>
-      <c r="D60" s="20"/>
-      <c r="E60" s="20"/>
-      <c r="F60" s="20"/>
-      <c r="G60" s="20"/>
-      <c r="H60" s="20"/>
-      <c r="I60" s="20"/>
-      <c r="J60" s="20"/>
-      <c r="K60" s="20"/>
-      <c r="L60" s="20"/>
-    </row>
-    <row r="61" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B61" s="23"/>
-      <c r="C61" s="20"/>
-      <c r="D61" s="20"/>
-      <c r="E61" s="20"/>
-      <c r="F61" s="20"/>
-      <c r="G61" s="20"/>
-      <c r="H61" s="20"/>
-      <c r="I61" s="20"/>
-      <c r="J61" s="20"/>
-      <c r="K61" s="20"/>
-      <c r="L61" s="20"/>
-    </row>
-    <row r="62" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B62" s="23"/>
-      <c r="C62" s="20"/>
-      <c r="D62" s="20"/>
-      <c r="E62" s="20"/>
-      <c r="F62" s="20"/>
-      <c r="G62" s="20"/>
-      <c r="H62" s="20"/>
-      <c r="I62" s="20"/>
-      <c r="J62" s="20"/>
-      <c r="K62" s="20"/>
-      <c r="L62" s="20"/>
-    </row>
-    <row r="63" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B63" s="23"/>
-      <c r="C63" s="20"/>
-      <c r="D63" s="20"/>
-      <c r="E63" s="20"/>
-      <c r="F63" s="20"/>
-      <c r="G63" s="20"/>
-      <c r="H63" s="20"/>
-      <c r="I63" s="20"/>
-      <c r="J63" s="20"/>
-      <c r="K63" s="20"/>
-      <c r="L63" s="20"/>
-    </row>
-    <row r="64" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B64" s="23"/>
-      <c r="C64" s="20"/>
-      <c r="D64" s="20"/>
-      <c r="E64" s="20"/>
-      <c r="F64" s="20"/>
-      <c r="G64" s="20"/>
-      <c r="H64" s="20"/>
-      <c r="I64" s="20"/>
-      <c r="J64" s="20"/>
-      <c r="K64" s="20"/>
-      <c r="L64" s="20"/>
-    </row>
-    <row r="65" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B65" s="23"/>
-      <c r="C65" s="20"/>
-      <c r="D65" s="20"/>
-      <c r="E65" s="20"/>
-      <c r="F65" s="20"/>
-      <c r="G65" s="20"/>
-      <c r="H65" s="20"/>
-      <c r="I65" s="20"/>
-      <c r="J65" s="20"/>
-      <c r="K65" s="20"/>
-      <c r="L65" s="20"/>
-    </row>
-    <row r="66" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B66" s="23"/>
-      <c r="C66" s="20"/>
-      <c r="D66" s="20"/>
-      <c r="E66" s="20"/>
-      <c r="F66" s="20"/>
-      <c r="G66" s="20"/>
-      <c r="H66" s="20"/>
-      <c r="I66" s="20"/>
-      <c r="J66" s="20"/>
-      <c r="K66" s="20"/>
-      <c r="L66" s="20"/>
-    </row>
-    <row r="67" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B67" s="23"/>
-      <c r="C67" s="20"/>
-      <c r="D67" s="20"/>
-      <c r="E67" s="20"/>
-      <c r="F67" s="20"/>
-      <c r="G67" s="20"/>
-      <c r="H67" s="20"/>
-      <c r="I67" s="20"/>
-      <c r="J67" s="20"/>
-      <c r="K67" s="20"/>
-      <c r="L67" s="20"/>
-    </row>
-    <row r="68" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B68" s="23"/>
-      <c r="C68" s="20"/>
-      <c r="D68" s="20"/>
-      <c r="E68" s="20"/>
-      <c r="F68" s="20"/>
-      <c r="G68" s="20"/>
-      <c r="H68" s="20"/>
-      <c r="I68" s="20"/>
-      <c r="J68" s="20"/>
-      <c r="K68" s="20"/>
-      <c r="L68" s="20"/>
-    </row>
-    <row r="69" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B69" s="23"/>
-      <c r="C69" s="20"/>
-      <c r="D69" s="20"/>
-      <c r="E69" s="20"/>
-      <c r="F69" s="20"/>
-      <c r="G69" s="20"/>
-      <c r="H69" s="20"/>
-      <c r="I69" s="20"/>
-      <c r="J69" s="20"/>
-      <c r="K69" s="20"/>
-      <c r="L69" s="20"/>
-    </row>
-    <row r="70" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B70" s="21"/>
-      <c r="C70" s="20"/>
-      <c r="D70" s="20"/>
-      <c r="E70" s="20"/>
-      <c r="F70" s="20"/>
-      <c r="G70" s="20"/>
-      <c r="H70" s="20"/>
-      <c r="I70" s="20"/>
-      <c r="J70" s="20"/>
-      <c r="K70" s="20"/>
-      <c r="L70" s="20"/>
-    </row>
-    <row r="71" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B71" s="23"/>
-      <c r="C71" s="20"/>
-      <c r="D71" s="20"/>
-      <c r="E71" s="20"/>
-      <c r="F71" s="20"/>
-      <c r="G71" s="20"/>
-      <c r="H71" s="20"/>
-      <c r="I71" s="20"/>
-      <c r="J71" s="20"/>
-      <c r="K71" s="20"/>
-      <c r="L71" s="20"/>
-    </row>
-    <row r="72" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B72" s="23"/>
-      <c r="C72" s="20"/>
-      <c r="D72" s="20"/>
-      <c r="E72" s="20"/>
-      <c r="F72" s="20"/>
-      <c r="G72" s="20"/>
-      <c r="H72" s="20"/>
-      <c r="I72" s="20"/>
-      <c r="J72" s="20"/>
-      <c r="K72" s="20"/>
-      <c r="L72" s="20"/>
-    </row>
-    <row r="73" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B73" s="23"/>
-      <c r="C73" s="20"/>
-      <c r="D73" s="20"/>
-      <c r="E73" s="20"/>
-      <c r="F73" s="20"/>
-      <c r="G73" s="20"/>
-      <c r="H73" s="20"/>
-      <c r="I73" s="20"/>
-      <c r="J73" s="20"/>
-      <c r="K73" s="20"/>
-      <c r="L73" s="20"/>
-    </row>
-    <row r="74" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B74" s="23"/>
-      <c r="C74" s="20"/>
-      <c r="D74" s="20"/>
-      <c r="E74" s="20"/>
-      <c r="F74" s="20"/>
-      <c r="G74" s="20"/>
-      <c r="H74" s="20"/>
-      <c r="I74" s="20"/>
-      <c r="J74" s="20"/>
-      <c r="K74" s="20"/>
-      <c r="L74" s="20"/>
-    </row>
-    <row r="75" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B75" s="23"/>
-      <c r="C75" s="20"/>
-      <c r="D75" s="20"/>
-      <c r="E75" s="20"/>
-      <c r="F75" s="20"/>
-      <c r="G75" s="20"/>
-      <c r="H75" s="20"/>
-      <c r="I75" s="20"/>
-      <c r="J75" s="20"/>
-      <c r="K75" s="20"/>
-      <c r="L75" s="20"/>
-    </row>
-    <row r="76" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B76" s="23"/>
-      <c r="C76" s="20"/>
-      <c r="D76" s="20"/>
-      <c r="E76" s="20"/>
-      <c r="F76" s="20"/>
-      <c r="G76" s="20"/>
-      <c r="H76" s="20"/>
-      <c r="I76" s="20"/>
-      <c r="J76" s="20"/>
-      <c r="K76" s="20"/>
-      <c r="L76" s="20"/>
-    </row>
-    <row r="77" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B77" s="23"/>
-      <c r="C77" s="20"/>
-      <c r="D77" s="20"/>
-      <c r="E77" s="20"/>
-      <c r="F77" s="20"/>
-      <c r="G77" s="20"/>
-      <c r="H77" s="20"/>
-      <c r="I77" s="20"/>
-      <c r="J77" s="20"/>
-      <c r="K77" s="20"/>
-      <c r="L77" s="20"/>
+    </row>
+    <row r="56" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B56" s="22"/>
+    </row>
+    <row r="57" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B57" s="22"/>
+    </row>
+    <row r="58" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B58" s="22"/>
+    </row>
+    <row r="59" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B59" s="22"/>
+    </row>
+    <row r="60" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B60" s="22"/>
+    </row>
+    <row r="61" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B61" s="22"/>
+    </row>
+    <row r="62" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B62" s="22"/>
+    </row>
+    <row r="63" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B63" s="22"/>
+    </row>
+    <row r="64" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B64" s="22"/>
+    </row>
+    <row r="65" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B65" s="22"/>
+    </row>
+    <row r="66" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B66" s="22"/>
+    </row>
+    <row r="67" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B67" s="22"/>
+    </row>
+    <row r="68" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B68" s="22"/>
+    </row>
+    <row r="69" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B69" s="22"/>
+    </row>
+    <row r="70" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B70" s="20"/>
+    </row>
+    <row r="71" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B71" s="22"/>
+    </row>
+    <row r="72" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B72" s="22"/>
+    </row>
+    <row r="73" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B73" s="22"/>
+    </row>
+    <row r="74" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B74" s="22"/>
+    </row>
+    <row r="75" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B75" s="22"/>
+    </row>
+    <row r="76" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B76" s="22"/>
+    </row>
+    <row r="77" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B77" s="22"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -13390,7 +12639,7 @@
       <c r="J5" s="7"/>
       <c r="K5" s="7"/>
       <c r="L5" s="7"/>
-      <c r="N5" s="24" t="s">
+      <c r="N5" s="23" t="s">
         <v>156</v>
       </c>
     </row>
@@ -13408,7 +12657,7 @@
       <c r="J6" s="7"/>
       <c r="K6" s="7"/>
       <c r="L6" s="7"/>
-      <c r="N6" s="25" t="s">
+      <c r="N6" s="24" t="s">
         <v>154</v>
       </c>
     </row>
@@ -13424,7 +12673,7 @@
       <c r="J7" s="7"/>
       <c r="K7" s="7"/>
       <c r="L7" s="7"/>
-      <c r="N7" s="25" t="s">
+      <c r="N7" s="24" t="s">
         <v>155</v>
       </c>
     </row>
@@ -13653,7 +12902,7 @@
       <c r="J22" s="7"/>
       <c r="K22" s="7"/>
       <c r="L22" s="7"/>
-      <c r="N22" s="24" t="s">
+      <c r="N22" s="23" t="s">
         <v>158</v>
       </c>
     </row>
@@ -13669,7 +12918,7 @@
       <c r="J23" s="7"/>
       <c r="K23" s="7"/>
       <c r="L23" s="7"/>
-      <c r="N23" s="25" t="s">
+      <c r="N23" s="24" t="s">
         <v>160</v>
       </c>
     </row>
@@ -13687,7 +12936,7 @@
       <c r="J24" s="7"/>
       <c r="K24" s="7"/>
       <c r="L24" s="7"/>
-      <c r="N24" s="25" t="s">
+      <c r="N24" s="24" t="s">
         <v>159</v>
       </c>
     </row>
